--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H2">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I2">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J2">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.63214269608029</v>
+        <v>73.38084166666667</v>
       </c>
       <c r="N2">
-        <v>68.63214269608029</v>
+        <v>220.142525</v>
       </c>
       <c r="O2">
-        <v>0.9918129814888451</v>
+        <v>0.9881925120129115</v>
       </c>
       <c r="P2">
-        <v>0.9918129814888451</v>
+        <v>0.9905403402623177</v>
       </c>
       <c r="Q2">
-        <v>821.5166284218809</v>
+        <v>1073.986980021072</v>
       </c>
       <c r="R2">
-        <v>821.5166284218809</v>
+        <v>9665.88282018965</v>
       </c>
       <c r="S2">
-        <v>0.486478983929832</v>
+        <v>0.5239410420715039</v>
       </c>
       <c r="T2">
-        <v>0.486478983929832</v>
+        <v>0.5899827769245432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H3">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I3">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J3">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0546009680501207</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N3">
-        <v>0.0546009680501207</v>
+        <v>0.479798</v>
       </c>
       <c r="O3">
-        <v>0.0007890464552997296</v>
+        <v>0.002153753759655346</v>
       </c>
       <c r="P3">
-        <v>0.0007890464552997296</v>
+        <v>0.00215887082324135</v>
       </c>
       <c r="Q3">
-        <v>0.653565536773891</v>
+        <v>2.340741776447556</v>
       </c>
       <c r="R3">
-        <v>0.653565536773891</v>
+        <v>21.066675988028</v>
       </c>
       <c r="S3">
-        <v>0.0003870230829923507</v>
+        <v>0.001141923234067673</v>
       </c>
       <c r="T3">
-        <v>0.0003870230829923507</v>
+        <v>0.001285860405220854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H4">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I4">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J4">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511929852981832</v>
+        <v>0.156083</v>
       </c>
       <c r="N4">
-        <v>0.511929852981832</v>
+        <v>0.468249</v>
       </c>
       <c r="O4">
-        <v>0.007397972055855031</v>
+        <v>0.002101911729946469</v>
       </c>
       <c r="P4">
-        <v>0.007397972055855031</v>
+        <v>0.002106905623016226</v>
       </c>
       <c r="Q4">
-        <v>6.127724857323487</v>
+        <v>2.284398843012667</v>
       </c>
       <c r="R4">
-        <v>6.127724857323487</v>
+        <v>20.559589587114</v>
       </c>
       <c r="S4">
-        <v>0.003628665883633751</v>
+        <v>0.001114436517928282</v>
       </c>
       <c r="T4">
-        <v>0.003628665883633751</v>
+        <v>0.001254909042731024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.823695917156494</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H5">
-        <v>0.823695917156494</v>
+        <v>43.907386</v>
       </c>
       <c r="I5">
-        <v>0.03375300219329009</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J5">
-        <v>0.03375300219329009</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>68.63214269608029</v>
+        <v>0.032753</v>
       </c>
       <c r="N5">
-        <v>68.63214269608029</v>
+        <v>0.098259</v>
       </c>
       <c r="O5">
-        <v>0.9918129814888451</v>
+        <v>0.0004410724735617376</v>
       </c>
       <c r="P5">
-        <v>0.9918129814888451</v>
+        <v>0.0004421204094657999</v>
       </c>
       <c r="Q5">
-        <v>56.53201572446323</v>
+        <v>0.4793662045526667</v>
       </c>
       <c r="R5">
-        <v>56.53201572446323</v>
+        <v>4.314295840974</v>
       </c>
       <c r="S5">
-        <v>0.03347666573952657</v>
+        <v>0.0002338572379548381</v>
       </c>
       <c r="T5">
-        <v>0.03347666573952657</v>
+        <v>0.0002633344815038743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.823695917156494</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H6">
-        <v>0.823695917156494</v>
+        <v>43.907386</v>
       </c>
       <c r="I6">
-        <v>0.03375300219329009</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J6">
-        <v>0.03375300219329009</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0546009680501207</v>
+        <v>0.5280275000000001</v>
       </c>
       <c r="N6">
-        <v>0.0546009680501207</v>
+        <v>1.056055</v>
       </c>
       <c r="O6">
-        <v>0.0007890464552997296</v>
+        <v>0.007110750023925151</v>
       </c>
       <c r="P6">
-        <v>0.0007890464552997296</v>
+        <v>0.004751762881958959</v>
       </c>
       <c r="Q6">
-        <v>0.0449745944556766</v>
+        <v>7.728102420371669</v>
       </c>
       <c r="R6">
-        <v>0.0449745944556766</v>
+        <v>46.36861452223001</v>
       </c>
       <c r="S6">
-        <v>2.663268673633955E-05</v>
+        <v>0.003770129536659186</v>
       </c>
       <c r="T6">
-        <v>2.663268673633955E-05</v>
+        <v>0.002830231285323218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.823695917156494</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H7">
-        <v>0.823695917156494</v>
+        <v>2.631178</v>
       </c>
       <c r="I7">
-        <v>0.03375300219329009</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J7">
-        <v>0.03375300219329009</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.511929852981832</v>
+        <v>73.38084166666667</v>
       </c>
       <c r="N7">
-        <v>0.511929852981832</v>
+        <v>220.142525</v>
       </c>
       <c r="O7">
-        <v>0.007397972055855031</v>
+        <v>0.9881925120129115</v>
       </c>
       <c r="P7">
-        <v>0.007397972055855031</v>
+        <v>0.9905403402623177</v>
       </c>
       <c r="Q7">
-        <v>0.4216745297716593</v>
+        <v>64.35935207160556</v>
       </c>
       <c r="R7">
-        <v>0.4216745297716593</v>
+        <v>579.2341686444499</v>
       </c>
       <c r="S7">
-        <v>0.0002497037670271736</v>
+        <v>0.03139749980095866</v>
       </c>
       <c r="T7">
-        <v>0.0002497037670271736</v>
+        <v>0.03535509271772101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H8">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I8">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J8">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>68.63214269608029</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N8">
-        <v>68.63214269608029</v>
+        <v>0.479798</v>
       </c>
       <c r="O8">
-        <v>0.9918129814888451</v>
+        <v>0.002153753759655346</v>
       </c>
       <c r="P8">
-        <v>0.9918129814888451</v>
+        <v>0.00215887082324135</v>
       </c>
       <c r="Q8">
-        <v>104.857457374791</v>
+        <v>0.1402704380048889</v>
       </c>
       <c r="R8">
-        <v>104.857457374791</v>
+        <v>1.262433942044</v>
       </c>
       <c r="S8">
-        <v>0.06209362970430085</v>
+        <v>6.843047525461228E-05</v>
       </c>
       <c r="T8">
-        <v>0.06209362970430085</v>
+        <v>7.705600167789982E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H9">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I9">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J9">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0546009680501207</v>
+        <v>0.156083</v>
       </c>
       <c r="N9">
-        <v>0.0546009680501207</v>
+        <v>0.468249</v>
       </c>
       <c r="O9">
-        <v>0.0007890464552997296</v>
+        <v>0.002101911729946469</v>
       </c>
       <c r="P9">
-        <v>0.0007890464552997296</v>
+        <v>0.002106905623016226</v>
       </c>
       <c r="Q9">
-        <v>0.08342036915984029</v>
+        <v>0.1368940519246667</v>
       </c>
       <c r="R9">
-        <v>0.08342036915984029</v>
+        <v>1.232046467322</v>
       </c>
       <c r="S9">
-        <v>4.93991905019481E-05</v>
+        <v>6.678331632790663E-05</v>
       </c>
       <c r="T9">
-        <v>4.93991905019481E-05</v>
+        <v>7.520122161758682E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H10">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I10">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J10">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.511929852981832</v>
+        <v>0.032753</v>
       </c>
       <c r="N10">
-        <v>0.511929852981832</v>
+        <v>0.098259</v>
       </c>
       <c r="O10">
-        <v>0.007397972055855031</v>
+        <v>0.0004410724735617376</v>
       </c>
       <c r="P10">
-        <v>0.007397972055855031</v>
+        <v>0.0004421204094657999</v>
       </c>
       <c r="Q10">
-        <v>0.7821359006031907</v>
+        <v>0.02872632434466666</v>
       </c>
       <c r="R10">
-        <v>0.7821359006031907</v>
+        <v>0.258536919102</v>
       </c>
       <c r="S10">
-        <v>0.0004631588272916692</v>
+        <v>1.401404355175084E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004631588272916692</v>
+        <v>1.578048609804284E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3985445819815</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H11">
-        <v>1.3985445819815</v>
+        <v>2.631178</v>
       </c>
       <c r="I11">
-        <v>0.05730886527396376</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J11">
-        <v>0.05730886527396376</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>68.63214269608029</v>
+        <v>0.5280275000000001</v>
       </c>
       <c r="N11">
-        <v>68.63214269608029</v>
+        <v>1.056055</v>
       </c>
       <c r="O11">
-        <v>0.9918129814888451</v>
+        <v>0.007110750023925151</v>
       </c>
       <c r="P11">
-        <v>0.9918129814888451</v>
+        <v>0.004751762881958959</v>
       </c>
       <c r="Q11">
-        <v>95.98511131738427</v>
+        <v>0.4631114471316667</v>
       </c>
       <c r="R11">
-        <v>95.98511131738427</v>
+        <v>2.77866868279</v>
       </c>
       <c r="S11">
-        <v>0.05683967653311254</v>
+        <v>0.0002259274076121918</v>
       </c>
       <c r="T11">
-        <v>0.05683967653311254</v>
+        <v>0.0001696034077923512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3985445819815</v>
+        <v>1.561394</v>
       </c>
       <c r="H12">
-        <v>1.3985445819815</v>
+        <v>4.684182</v>
       </c>
       <c r="I12">
-        <v>0.05730886527396376</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J12">
-        <v>0.05730886527396376</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0546009680501207</v>
+        <v>73.38084166666667</v>
       </c>
       <c r="N12">
-        <v>0.0546009680501207</v>
+        <v>220.142525</v>
       </c>
       <c r="O12">
-        <v>0.0007890464552997296</v>
+        <v>0.9881925120129115</v>
       </c>
       <c r="P12">
-        <v>0.0007890464552997296</v>
+        <v>0.9905403402623177</v>
       </c>
       <c r="Q12">
-        <v>0.07636188803744129</v>
+        <v>114.5764058932833</v>
       </c>
       <c r="R12">
-        <v>0.07636188803744129</v>
+        <v>1031.18765303955</v>
       </c>
       <c r="S12">
-        <v>4.521935700167088E-05</v>
+        <v>0.05589572556955636</v>
       </c>
       <c r="T12">
-        <v>4.521935700167088E-05</v>
+        <v>0.0629412715204672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.3985445819815</v>
+        <v>1.561394</v>
       </c>
       <c r="H13">
-        <v>1.3985445819815</v>
+        <v>4.684182</v>
       </c>
       <c r="I13">
-        <v>0.05730886527396376</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J13">
-        <v>0.05730886527396376</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.511929852981832</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N13">
-        <v>0.511929852981832</v>
+        <v>0.479798</v>
       </c>
       <c r="O13">
-        <v>0.007397972055855031</v>
+        <v>0.002153753759655346</v>
       </c>
       <c r="P13">
-        <v>0.007397972055855031</v>
+        <v>0.00215887082324135</v>
       </c>
       <c r="Q13">
-        <v>0.715956722242327</v>
+        <v>0.2497179061373333</v>
       </c>
       <c r="R13">
-        <v>0.715956722242327</v>
+        <v>2.247461155236</v>
       </c>
       <c r="S13">
-        <v>0.0004239693838495447</v>
+        <v>0.0001218240652814444</v>
       </c>
       <c r="T13">
-        <v>0.0004239693838495447</v>
+        <v>0.0001371797484060707</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H14">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I14">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J14">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.63214269608029</v>
+        <v>0.156083</v>
       </c>
       <c r="N14">
-        <v>68.63214269608029</v>
+        <v>0.468249</v>
       </c>
       <c r="O14">
-        <v>0.9918129814888451</v>
+        <v>0.002101911729946469</v>
       </c>
       <c r="P14">
-        <v>0.9918129814888451</v>
+        <v>0.002106905623016226</v>
       </c>
       <c r="Q14">
-        <v>595.9824887873908</v>
+        <v>0.243707059702</v>
       </c>
       <c r="R14">
-        <v>595.9824887873908</v>
+        <v>2.193363537318</v>
       </c>
       <c r="S14">
-        <v>0.3529240255820731</v>
+        <v>0.000118891693470942</v>
       </c>
       <c r="T14">
-        <v>0.3529240255820731</v>
+        <v>0.0001338777569131055</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H15">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I15">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J15">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.0546009680501207</v>
+        <v>0.032753</v>
       </c>
       <c r="N15">
-        <v>0.0546009680501207</v>
+        <v>0.098259</v>
       </c>
       <c r="O15">
-        <v>0.0007890464552997296</v>
+        <v>0.0004410724735617376</v>
       </c>
       <c r="P15">
-        <v>0.0007890464552997296</v>
+        <v>0.0004421204094657999</v>
       </c>
       <c r="Q15">
-        <v>0.4741396603747625</v>
+        <v>0.05114033768199999</v>
       </c>
       <c r="R15">
-        <v>0.4741396603747625</v>
+        <v>0.460263039138</v>
       </c>
       <c r="S15">
-        <v>0.0002807721380674204</v>
+        <v>2.494864678570866E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002807721380674204</v>
+        <v>2.809337450058587E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H16">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I16">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J16">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.511929852981832</v>
+        <v>0.5280275000000001</v>
       </c>
       <c r="N16">
-        <v>0.511929852981832</v>
+        <v>1.056055</v>
       </c>
       <c r="O16">
-        <v>0.007397972055855031</v>
+        <v>0.007110750023925151</v>
       </c>
       <c r="P16">
-        <v>0.007397972055855031</v>
+        <v>0.004751762881958959</v>
       </c>
       <c r="Q16">
-        <v>4.445456835228608</v>
+        <v>0.8244589703350002</v>
       </c>
       <c r="R16">
-        <v>4.445456835228608</v>
+        <v>4.946753822010001</v>
       </c>
       <c r="S16">
-        <v>0.002632474194052892</v>
+        <v>0.0004022096171538724</v>
       </c>
       <c r="T16">
-        <v>0.002632474194052892</v>
+        <v>0.0003019382306782708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.434782</v>
+      </c>
+      <c r="H17">
+        <v>4.304346</v>
+      </c>
+      <c r="I17">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J17">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>73.38084166666667</v>
+      </c>
+      <c r="N17">
+        <v>220.142525</v>
+      </c>
+      <c r="O17">
+        <v>0.9881925120129115</v>
+      </c>
+      <c r="P17">
+        <v>0.9905403402623177</v>
+      </c>
+      <c r="Q17">
+        <v>105.2855107681833</v>
+      </c>
+      <c r="R17">
+        <v>947.56959691365</v>
+      </c>
+      <c r="S17">
+        <v>0.05136319271377962</v>
+      </c>
+      <c r="T17">
+        <v>0.05783742183886896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.434782</v>
+      </c>
+      <c r="H18">
+        <v>4.304346</v>
+      </c>
+      <c r="I18">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J18">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1599326666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.479798</v>
+      </c>
+      <c r="O18">
+        <v>0.002153753759655346</v>
+      </c>
+      <c r="P18">
+        <v>0.00215887082324135</v>
+      </c>
+      <c r="Q18">
+        <v>0.2294685113453333</v>
+      </c>
+      <c r="R18">
+        <v>2.065216602108</v>
+      </c>
+      <c r="S18">
+        <v>0.0001119454641382261</v>
+      </c>
+      <c r="T18">
+        <v>0.0001260559690747876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.434782</v>
+      </c>
+      <c r="H19">
+        <v>4.304346</v>
+      </c>
+      <c r="I19">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J19">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.156083</v>
+      </c>
+      <c r="N19">
+        <v>0.468249</v>
+      </c>
+      <c r="O19">
+        <v>0.002101911729946469</v>
+      </c>
+      <c r="P19">
+        <v>0.002106905623016226</v>
+      </c>
+      <c r="Q19">
+        <v>0.223945078906</v>
+      </c>
+      <c r="R19">
+        <v>2.015505710154</v>
+      </c>
+      <c r="S19">
+        <v>0.0001092508756544634</v>
+      </c>
+      <c r="T19">
+        <v>0.000123021733027858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.434782</v>
+      </c>
+      <c r="H20">
+        <v>4.304346</v>
+      </c>
+      <c r="I20">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J20">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.032753</v>
+      </c>
+      <c r="N20">
+        <v>0.098259</v>
+      </c>
+      <c r="O20">
+        <v>0.0004410724735617376</v>
+      </c>
+      <c r="P20">
+        <v>0.0004421204094657999</v>
+      </c>
+      <c r="Q20">
+        <v>0.046993414846</v>
+      </c>
+      <c r="R20">
+        <v>0.422940733614</v>
+      </c>
+      <c r="S20">
+        <v>2.292558401818672E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.581530866181091E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.434782</v>
+      </c>
+      <c r="H21">
+        <v>4.304346</v>
+      </c>
+      <c r="I21">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J21">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5280275000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.056055</v>
+      </c>
+      <c r="O21">
+        <v>0.007110750023925151</v>
+      </c>
+      <c r="P21">
+        <v>0.004751762881958959</v>
+      </c>
+      <c r="Q21">
+        <v>0.7576043525050001</v>
+      </c>
+      <c r="R21">
+        <v>4.545626115030001</v>
+      </c>
+      <c r="S21">
+        <v>0.0003695948100987114</v>
+      </c>
+      <c r="T21">
+        <v>0.0002774543379115269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H22">
+        <v>18.190377</v>
+      </c>
+      <c r="I22">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J22">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>73.38084166666667</v>
+      </c>
+      <c r="N22">
+        <v>220.142525</v>
+      </c>
+      <c r="O22">
+        <v>0.9881925120129115</v>
+      </c>
+      <c r="P22">
+        <v>0.9905403402623177</v>
+      </c>
+      <c r="Q22">
+        <v>667.4125872469875</v>
+      </c>
+      <c r="R22">
+        <v>4004.475523481925</v>
+      </c>
+      <c r="S22">
+        <v>0.325595051857113</v>
+      </c>
+      <c r="T22">
+        <v>0.2444237772607174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H23">
+        <v>18.190377</v>
+      </c>
+      <c r="I23">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J23">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1599326666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.479798</v>
+      </c>
+      <c r="O23">
+        <v>0.002153753759655346</v>
+      </c>
+      <c r="P23">
+        <v>0.00215887082324135</v>
+      </c>
+      <c r="Q23">
+        <v>1.454617750641</v>
+      </c>
+      <c r="R23">
+        <v>8.727706503846001</v>
+      </c>
+      <c r="S23">
+        <v>0.0007096305209133905</v>
+      </c>
+      <c r="T23">
+        <v>0.0005327186988617382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H24">
+        <v>18.190377</v>
+      </c>
+      <c r="I24">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J24">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.156083</v>
+      </c>
+      <c r="N24">
+        <v>0.468249</v>
+      </c>
+      <c r="O24">
+        <v>0.002101911729946469</v>
+      </c>
+      <c r="P24">
+        <v>0.002106905623016226</v>
+      </c>
+      <c r="Q24">
+        <v>1.4196043066455</v>
+      </c>
+      <c r="R24">
+        <v>8.517625839873002</v>
+      </c>
+      <c r="S24">
+        <v>0.0006925493265648756</v>
+      </c>
+      <c r="T24">
+        <v>0.0005198958687266518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H25">
+        <v>18.190377</v>
+      </c>
+      <c r="I25">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J25">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.032753</v>
+      </c>
+      <c r="N25">
+        <v>0.098259</v>
+      </c>
+      <c r="O25">
+        <v>0.0004410724735617376</v>
+      </c>
+      <c r="P25">
+        <v>0.0004421204094657999</v>
+      </c>
+      <c r="Q25">
+        <v>0.2978947089405</v>
+      </c>
+      <c r="R25">
+        <v>1.787368253643</v>
+      </c>
+      <c r="S25">
+        <v>0.0001453269612512533</v>
+      </c>
+      <c r="T25">
+        <v>0.0001090967587014859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H26">
+        <v>18.190377</v>
+      </c>
+      <c r="I26">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J26">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5280275000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.056055</v>
+      </c>
+      <c r="O26">
+        <v>0.007110750023925151</v>
+      </c>
+      <c r="P26">
+        <v>0.004751762881958959</v>
+      </c>
+      <c r="Q26">
+        <v>4.802509645683751</v>
+      </c>
+      <c r="R26">
+        <v>19.21003858273501</v>
+      </c>
+      <c r="S26">
+        <v>0.00234288865240119</v>
+      </c>
+      <c r="T26">
+        <v>0.001172535620253592</v>
       </c>
     </row>
   </sheetData>
